--- a/pkg/excels/templates/return.xlsx
+++ b/pkg/excels/templates/return.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamad\OneDrive\Desktop\ТГЭМ\backend-v2\pkg\excels\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B424A77-DBFF-4B73-94AE-774F1B411606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2FF869-1CB4-428B-BA36-BEFB516C29A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D84837-498F-477C-820F-944EE407A813}"/>
   </bookViews>
   <sheets>
     <sheet name="Возврат" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>ОАО  "Таджикгидроэлектромонтаж"</t>
   </si>
@@ -235,6 +235,9 @@
       <t xml:space="preserve">на возврат материала 
 </t>
     </r>
+  </si>
+  <si>
+    <t>Брак</t>
   </si>
 </sst>
 </file>
@@ -326,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -358,11 +361,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -422,6 +462,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -440,29 +504,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,9 +671,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -662,7 +711,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -768,7 +817,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -910,7 +959,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -918,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928E14FB-753C-4C9C-8CE9-5FF3781C0E0E}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,64 +986,66 @@
     <col min="11" max="11" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="14"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="16" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="17"/>
       <c r="J3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
@@ -1013,13 +1064,16 @@
       <c r="H4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1032,7 +1086,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1042,33 +1096,33 @@
         <v>13</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="36"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="18"/>
       <c r="H7" s="11"/>
       <c r="I7" s="3"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="34"/>
+      <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1081,78 +1135,78 @@
       <c r="J8" s="9"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="7"/>
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="28" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34" t="s">
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="32"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="14"/>
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="35"/>
+      <c r="K10" s="25"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34" t="s">
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="35"/>
+      <c r="K13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:H3"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/pkg/excels/templates/return.xlsx
+++ b/pkg/excels/templates/return.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamad\OneDrive\Desktop\ТГЭМ\backend-v2\pkg\excels\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2FF869-1CB4-428B-BA36-BEFB516C29A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C1A840-11B4-444F-BBCC-C16B60873E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D84837-498F-477C-820F-944EE407A813}"/>
   </bookViews>
@@ -34,61 +34,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
-  <si>
-    <t>ОАО  "Таджикгидроэлектромонтаж"</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t xml:space="preserve">Проект по внедрению АСКУЭ                                    в г. Душанбе
 Регион: Сино-2 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">  Категория объекта:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Адресс объекта: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">            Объект: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Гос. номер: </t>
   </si>
   <si>
-    <t>№ 
-п/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Код 
-материала </t>
-  </si>
-  <si>
     <t xml:space="preserve">Наименование материалов </t>
   </si>
   <si>
@@ -101,13 +58,6 @@
     <t xml:space="preserve">Примечание </t>
   </si>
   <si>
-    <t>Мухаммадиев М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_________
-подпись зав. склада                                                                                                                                                                     </t>
-  </si>
-  <si>
     <t>Бригадир:</t>
   </si>
   <si>
@@ -115,66 +65,6 @@
   </si>
   <si>
     <t>Возвращал:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Отпуск разрешил: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Рахимов Ш.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">_________ подпись </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">   подпись</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Отпуск разрешил:</t>
   </si>
   <si>
     <t>Водитель:</t>
@@ -238,6 +128,53 @@
   </si>
   <si>
     <t>Брак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код материала </t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>ОАО  "ТГЭМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объект: </t>
+  </si>
+  <si>
+    <r>
+      <t>Кат. объекта:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Рахимов Ш.</t>
+  </si>
+  <si>
+    <t>__________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возврат разрешил: </t>
   </si>
 </sst>
 </file>
@@ -303,10 +240,9 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -329,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -361,57 +297,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -462,55 +355,39 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,98 +411,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95663</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="376445" cy="470922"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0444A052-FA1D-4E83-980C-F8E56FA5C502}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1314863" y="0"/>
-          <a:ext cx="376445" cy="470922"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95663</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="376445" cy="470922"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB12A1C8-469E-4AEA-9C7D-D58486C7FACE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1314863" y="0"/>
-          <a:ext cx="376445" cy="470922"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95663</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>199077</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -657,7 +444,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1314863" y="0"/>
+          <a:off x="199077" y="0"/>
           <a:ext cx="376445" cy="470922"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -967,249 +754,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928E14FB-753C-4C9C-8CE9-5FF3781C0E0E}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="0.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="G1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="32" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="K2" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="33" t="s">
+      <c r="I3" s="15"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="15" t="s">
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="E4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="15" t="s">
+      <c r="F4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="12"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="28" t="s">
+      <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="25"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E2:F2"/>
+  <mergeCells count="9">
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/pkg/excels/templates/return.xlsx
+++ b/pkg/excels/templates/return.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamad\OneDrive\Desktop\ТГЭМ\backend-v2\pkg\excels\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\TGEM\tgem-backend\pkg\excels\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C1A840-11B4-444F-BBCC-C16B60873E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6D84837-498F-477C-820F-944EE407A813}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Возврат" sheetId="2" r:id="rId1"/>
@@ -180,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,14 +366,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -387,12 +386,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -753,11 +752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928E14FB-753C-4C9C-8CE9-5FF3781C0E0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,7 +810,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="24"/>
@@ -831,7 +830,7 @@
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -846,11 +845,11 @@
       <c r="F4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -876,8 +875,8 @@
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="2"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -916,8 +915,8 @@
       <c r="E9" s="2"/>
       <c r="F9" s="21"/>
       <c r="G9" s="12"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -942,14 +941,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="29"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -960,15 +959,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
